--- a/app/reports/templates/change_request.xlsx
+++ b/app/reports/templates/change_request.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Титульная страница" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t xml:space="preserve">УТВЕРЖДЕН</t>
   </si>
@@ -189,34 +189,28 @@
     <t xml:space="preserve">Базовое значение</t>
   </si>
   <si>
-    <t xml:space="preserve">Период реализации регионального проекта, год</t>
+    <t xml:space="preserve">значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Изменение результатов и характеристик результатов регионального проекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование результата </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Значение результата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Характеристика результата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ответственный исполнитель</t>
   </si>
   <si>
     <t xml:space="preserve">Уровень контроля</t>
-  </si>
-  <si>
-    <t xml:space="preserve">значение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дополни-тельный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Изменение результатов и характеристик результатов регионального проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование результата </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Значение результата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Характеристика результата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответственный исполнитель</t>
   </si>
   <si>
     <t xml:space="preserve">Значение</t>
@@ -420,7 +414,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -478,6 +472,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top style="thin"/>
@@ -611,12 +612,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -643,7 +644,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -666,7 +667,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -674,7 +675,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -966,26 +967,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="11.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="24" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="24" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="24" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -998,231 +999,62 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="19"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="19" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I4" s="19" t="n">
-        <v>2020</v>
-      </c>
-      <c r="J4" s="19" t="n">
-        <v>2021</v>
-      </c>
-      <c r="K4" s="19" t="n">
-        <v>2022</v>
-      </c>
-      <c r="L4" s="19" t="n">
-        <v>2023</v>
-      </c>
-      <c r="M4" s="19" t="n">
-        <v>2024</v>
-      </c>
-      <c r="N4" s="19"/>
-    </row>
-    <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-    </row>
-    <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-    </row>
-    <row r="11" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-    </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-    </row>
-    <row r="13" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18"/>
+      <c r="B5" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:N1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:N11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:N12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:N13"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1251,7 +1083,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.85"/>
@@ -1261,7 +1093,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1280,24 +1112,24 @@
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,10 +1138,10 @@
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -1317,7 +1149,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1478,7 +1310,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1498,11 +1330,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -1510,7 +1342,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1539,7 +1371,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1751,7 +1583,7 @@
     </row>
     <row r="22" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -1771,7 +1603,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -1785,7 +1617,7 @@
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -1799,7 +1631,7 @@
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -1813,7 +1645,7 @@
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -1827,7 +1659,7 @@
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -1841,7 +1673,7 @@
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -1855,7 +1687,7 @@
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -1867,7 +1699,7 @@
     </row>
     <row r="30" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -1885,7 +1717,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -1899,7 +1731,7 @@
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -1913,7 +1745,7 @@
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -1927,7 +1759,7 @@
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -1941,7 +1773,7 @@
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -1955,7 +1787,7 @@
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -1969,7 +1801,7 @@
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -2088,18 +1920,18 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2119,23 +1951,23 @@
     </row>
     <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,7 +2085,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2271,7 +2103,7 @@
     </row>
     <row r="2" s="2" customFormat="true" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -2395,7 +2227,7 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.14"/>
@@ -2406,7 +2238,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2424,21 +2256,21 @@
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2446,10 +2278,10 @@
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="19"/>
@@ -2457,7 +2289,7 @@
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -2469,7 +2301,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -2481,7 +2313,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -2539,7 +2371,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -2577,7 +2409,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -2589,7 +2421,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -2647,7 +2479,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>

--- a/app/reports/templates/change_request.xlsx
+++ b/app/reports/templates/change_request.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Титульная страница" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t xml:space="preserve">УТВЕРЖДЕН</t>
   </si>
@@ -219,6 +219,65 @@
     <t xml:space="preserve">Дата</t>
   </si>
   <si>
+    <t xml:space="preserve">Задача национального проекта: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Изменение финансового обеспечения реализации регионального проекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование результата, источника финансирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объем финансового обеспечения по годам реализации (млн.рублей)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Изменение участников федерального проекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№
+п/п
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роль в проекте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фамилия, инициалы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Должность </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Непосредственный руководитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Занятость в проекте (процентов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Изменение дополнительной информации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(указывается информация, которая подлежит добавлению, замене, исключению)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Изменение контрольных точек и мероприятий регионального проекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование контрольной точки, мероприятия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок реализации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вид документа и характеристика результата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начало</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Окончание</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -250,89 +309,6 @@
       </rPr>
       <t xml:space="preserve">): </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Изменение финансового обеспечения реализации регионального проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование результата, источника финансирования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Объем финансового обеспечения по годам реализации (млн.рублей)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего (млн.рублей)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего по региональному проекту, в том числе:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">федеральный бюджет (в т.ч. межбюджетные трансферты бюджету Республики Бурятия) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">бюджеты государственных внебюджетных фондов Российской Федерации и их территориальных фондов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">консолидированный бюджет Республики Бурятия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бюджет Республики Бурятия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">межбюджетные трансферты бюджета Республики Бурятия бюджетам муниципальных образований</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бюджеты муниципальных образований (без учета межбюджетных трансфертов из бюджета Республики Бурятия)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">внебюджетные источники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Изменение участников федерального проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">№
-п/п
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Роль в проекте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фамилия, инициалы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Должность </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Непосредственный руководитель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Занятость в проекте (процентов)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Изменение дополнительной информации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(указывается информация, которая подлежит добавлению, замене, исключению)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. Изменение контрольных точек и мероприятий регионального проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование контрольной точки, мероприятия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срок реализации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вид документа и характеристика результата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Начало</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Окончание</t>
   </si>
   <si>
     <t xml:space="preserve">Результат:  </t>
@@ -511,7 +487,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -620,6 +596,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -632,20 +624,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -969,7 +957,7 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1071,10 +1059,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1084,7 +1072,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.14"/>
@@ -1160,99 +1148,18 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="9">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
@@ -1262,22 +1169,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:I15"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1294,607 +1185,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
+    </row>
+    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E4" s="19" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F4" s="19" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G4" s="19" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H4" s="19" t="n">
-        <v>2023</v>
-      </c>
-      <c r="I4" s="19" t="n">
-        <v>2024</v>
-      </c>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-    </row>
-    <row r="23" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-    </row>
-    <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-    </row>
-    <row r="30" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-    </row>
-    <row r="32" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-    </row>
-    <row r="35" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-    </row>
-    <row r="36" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-    </row>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:J44"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1931,7 +1268,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1951,23 +1288,23 @@
     </row>
     <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,48 +1338,48 @@
       <c r="A7" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2085,7 +1422,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2102,94 +1439,94 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
+      <c r="A2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2238,7 +1575,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2256,18 +1593,18 @@
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E3" s="19"/>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="35" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>39</v>
@@ -2278,18 +1615,18 @@
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="33"/>
+        <v>60</v>
+      </c>
+      <c r="F4" s="35"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -2301,7 +1638,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -2313,7 +1650,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -2371,7 +1708,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -2409,7 +1746,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -2421,7 +1758,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -2479,7 +1816,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -2516,52 +1853,52 @@
       <c r="H23" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="39">

--- a/app/reports/templates/change_request.xlsx
+++ b/app/reports/templates/change_request.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Титульная страница" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t xml:space="preserve">УТВЕРЖДЕН</t>
   </si>
@@ -53,13 +53,13 @@
     <t xml:space="preserve">□ 1. Основные положения</t>
   </si>
   <si>
-    <t xml:space="preserve">■ 5. Финансовое обеспечение</t>
+    <t xml:space="preserve">□ 5. Финансовое обеспечение</t>
   </si>
   <si>
     <t xml:space="preserve">Изменяемый раздел проекта </t>
   </si>
   <si>
-    <t xml:space="preserve">■ 2. Цель и показатели </t>
+    <t xml:space="preserve">□ 2. Цель и показатели </t>
   </si>
   <si>
     <t xml:space="preserve">□ 6. Участники</t>
@@ -71,10 +71,10 @@
     <t xml:space="preserve">□ 7. Дополнительная информация</t>
   </si>
   <si>
-    <t xml:space="preserve">■ 4. Результаты и характеристики результатов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">■ 8. Контрольные точки и мероприятия</t>
+    <t xml:space="preserve">□ 4. Результаты и характеристики результатов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">□ 8. Контрольные точки и мероприятия</t>
   </si>
   <si>
     <r>
@@ -127,7 +127,52 @@
     <t xml:space="preserve">1.</t>
   </si>
   <si>
+    <t xml:space="preserve">Основные положения</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цель и показатели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Показатели по субъекту РФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Результаты и характеристики результатов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Финансовое обеспечение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Участники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дополнительная информация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контрольные точки и мероприятия</t>
   </si>
   <si>
     <t xml:space="preserve">Обоснование и анализ изменений</t>
@@ -327,7 +372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -374,6 +419,12 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -390,7 +441,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -455,6 +506,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top style="thin"/>
@@ -487,7 +545,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -572,6 +630,22 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -596,7 +670,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -608,7 +682,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -624,11 +698,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -655,8 +725,8 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -817,10 +887,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -867,7 +937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>21</v>
       </c>
@@ -875,70 +945,169 @@
         <v>22</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="C8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="C9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="C11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18"/>
+      <c r="B12" s="24"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -966,17 +1135,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="11.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="24" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="11.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="28" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="28" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="28" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="11" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -995,43 +1164,43 @@
       <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="25"/>
+      <c r="B3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="29"/>
       <c r="D3" s="19" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1081,7 +1250,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1100,24 +1269,24 @@
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,10 +1295,10 @@
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -1137,7 +1306,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1187,8 +1356,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L40" activeCellId="0" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1202,7 +1371,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1212,19 +1381,19 @@
       <c r="A2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
-        <v>45</v>
+      <c r="B2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1248,10 +1417,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1268,7 +1437,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1287,112 +1456,39 @@
       <c r="A2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>47</v>
+      <c r="A3" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-    </row>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1422,7 +1518,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1440,7 +1536,7 @@
     </row>
     <row r="2" s="2" customFormat="true" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1457,76 +1553,76 @@
       <c r="N2" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+      <c r="A6" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
+      <c r="A7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
+      <c r="A8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
+      <c r="A9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1558,7 +1654,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1575,7 +1671,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1593,21 +1689,21 @@
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E3" s="19"/>
-      <c r="F3" s="35" t="s">
-        <v>38</v>
+      <c r="F3" s="38" t="s">
+        <v>53</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1615,18 +1711,18 @@
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="F4" s="38"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1638,7 +1734,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1650,7 +1746,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1708,7 +1804,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1746,7 +1842,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -1758,7 +1854,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -1816,7 +1912,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -1853,52 +1949,52 @@
       <c r="H23" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="A27" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="A28" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="A29" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="A30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="39">
